--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/incorrect_predictions_99.xlsx
@@ -612,46 +612,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,46 +687,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Obstacle Sensing will be disabled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,46 +737,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass Interference Temp</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/incorrect_predictions_99.xlsx
@@ -612,46 +612,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,46 +687,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,46 +737,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Compass Interference Temp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
